--- a/notebooks/data/batch2_data/Etiologie patients inclus anonym.xlsx
+++ b/notebooks/data/batch2_data/Etiologie patients inclus anonym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeta\Documents\acou_sommeil_HD_ENS\recrutement etude fin aout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis/git/Tinnitus-n-Sleep/notebooks/data/batch2_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352821DF-A433-45C7-BE07-2E9E24B25CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93D8170-0C7A-EC4A-BC4F-B16F7D6C385E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F5BF53D5-4C89-465E-97CD-524ECB77F3A5}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F5BF53D5-4C89-465E-97CD-524ECB77F3A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -995,7 +987,7 @@
     <t>12b0fbc1-e6b1-11ea-be9b-2b562de1e2c7</t>
   </si>
   <si>
-    <t>1DM23</t>
+    <t>1DM32</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1065,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1371,13 +1363,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E847EA8-6EE2-42D7-BAB1-4873AF742906}">
   <dimension ref="A1:FX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="36" max="36" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -1919,7 +1917,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>302</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>44033.817847222221</v>
       </c>
     </row>
-    <row r="3" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
@@ -2619,7 +2617,7 @@
         <v>43846.486921296295</v>
       </c>
     </row>
-    <row r="4" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>305</v>
       </c>
@@ -2969,7 +2967,7 @@
         <v>44029.723680555559</v>
       </c>
     </row>
-    <row r="5" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>307</v>
       </c>
@@ -3316,7 +3314,7 @@
         <v>43970.600405092591</v>
       </c>
     </row>
-    <row r="6" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>306</v>
       </c>
@@ -3657,7 +3655,7 @@
         <v>43887.003888888888</v>
       </c>
     </row>
-    <row r="7" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>304</v>
       </c>
@@ -4028,7 +4026,7 @@
         <v>44029.823275462964</v>
       </c>
     </row>
-    <row r="8" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>303</v>
       </c>
@@ -4390,7 +4388,7 @@
         <v>44036.38894675926</v>
       </c>
     </row>
-    <row r="9" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>320</v>
       </c>
@@ -4710,7 +4708,7 @@
         <v>44068.474166666667</v>
       </c>
     </row>
-    <row r="10" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>311</v>
       </c>
@@ -5045,7 +5043,7 @@
         <v>43729.039687500001</v>
       </c>
     </row>
-    <row r="11" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>308</v>
       </c>
@@ -5377,7 +5375,7 @@
         <v>43718.933912037035</v>
       </c>
     </row>
-    <row r="12" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>309</v>
       </c>
@@ -5703,7 +5701,7 @@
         <v>43720.592141203706</v>
       </c>
     </row>
-    <row r="13" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>301</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>44053.677824074075</v>
       </c>
     </row>
-    <row r="14" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
@@ -6358,7 +6356,7 @@
         <v>43756.492511574077</v>
       </c>
     </row>
-    <row r="15" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>313</v>
       </c>
@@ -6690,7 +6688,7 @@
         <v>43765.896203703705</v>
       </c>
     </row>
-    <row r="16" spans="1:180" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:180" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>310</v>
       </c>
@@ -7013,83 +7011,83 @@
         <v>43723.830752314818</v>
       </c>
     </row>
-    <row r="22" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="22" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ22" s="1"/>
       <c r="CK22" s="2"/>
     </row>
-    <row r="23" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="23" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ23" s="1"/>
       <c r="CK23" s="2"/>
     </row>
-    <row r="24" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="24" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ24" s="1"/>
       <c r="CK24" s="2"/>
     </row>
-    <row r="25" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="25" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ25" s="1"/>
       <c r="CK25" s="2"/>
     </row>
-    <row r="26" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="26" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ26" s="1"/>
       <c r="CK26" s="2"/>
     </row>
-    <row r="27" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="27" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ27" s="1"/>
       <c r="CK27" s="2"/>
     </row>
-    <row r="28" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="28" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ28" s="1"/>
       <c r="CK28" s="2"/>
     </row>
-    <row r="29" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="29" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ29" s="1"/>
       <c r="CK29" s="2"/>
     </row>
-    <row r="30" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="30" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ30" s="1"/>
       <c r="CK30" s="2"/>
     </row>
-    <row r="31" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="31" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ31" s="1"/>
       <c r="CK31" s="2"/>
     </row>
-    <row r="40" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="40" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ40" s="1"/>
       <c r="CK40" s="2"/>
     </row>
-    <row r="41" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="41" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ41" s="1"/>
       <c r="CK41" s="2"/>
     </row>
-    <row r="42" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="42" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ42" s="1"/>
       <c r="CK42" s="2"/>
     </row>
-    <row r="43" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="43" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ43" s="1"/>
       <c r="CK43" s="2"/>
     </row>
-    <row r="44" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="44" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ44" s="1"/>
       <c r="CK44" s="2"/>
     </row>
-    <row r="45" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="45" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ45" s="1"/>
       <c r="CK45" s="2"/>
     </row>
-    <row r="46" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="46" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ46" s="1"/>
       <c r="CK46" s="2"/>
     </row>
-    <row r="47" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="47" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ47" s="1"/>
       <c r="CK47" s="2"/>
     </row>
-    <row r="48" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="48" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ48" s="1"/>
       <c r="CK48" s="2"/>
     </row>
-    <row r="49" spans="88:89" x14ac:dyDescent="0.35">
+    <row r="49" spans="88:89" x14ac:dyDescent="0.2">
       <c r="CJ49" s="1"/>
       <c r="CK49" s="2"/>
     </row>
